--- a/test input 3.xlsx
+++ b/test input 3.xlsx
@@ -8,19 +8,20 @@
   </bookViews>
   <sheets>
     <sheet name="Metricas_Datos" sheetId="1" r:id="rId1"/>
-    <sheet name="Grafico1" sheetId="2" r:id="rId2"/>
-    <sheet name="Grafico2" sheetId="3" r:id="rId3"/>
-    <sheet name="Grafico3" sheetId="4" r:id="rId4"/>
-    <sheet name="Grafico4" sheetId="5" r:id="rId5"/>
-    <sheet name="Grafico5" sheetId="6" r:id="rId6"/>
-    <sheet name="Grafico6" sheetId="7" r:id="rId7"/>
+    <sheet name="Helper Table" sheetId="2" r:id="rId2"/>
+    <sheet name="Grafico1" sheetId="3" r:id="rId3"/>
+    <sheet name="Grafico2" sheetId="4" r:id="rId4"/>
+    <sheet name="Grafico3" sheetId="5" r:id="rId5"/>
+    <sheet name="Grafico4" sheetId="6" r:id="rId6"/>
+    <sheet name="Grafico5" sheetId="7" r:id="rId7"/>
+    <sheet name="Grafico6" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="53">
   <si>
     <t>Time</t>
   </si>
@@ -173,6 +174,12 @@
   </si>
   <si>
     <t>2015-08-31 00:00:00 UTC</t>
+  </si>
+  <si>
+    <t>ANR Execution</t>
+  </si>
+  <si>
+    <t>ANR avg</t>
   </si>
 </sst>
 </file>
@@ -5634,4 +5641,2345 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:U32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2">
+        <f>AVERAGEIF($D:$D,$D2,Metricas_Datos!C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>AVERAGEIF($D:$D,$D2,Metricas_Datos!D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f>AVERAGEIF($D:$D,$D2,Metricas_Datos!E:E)</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>AVERAGEIF($D:$D,$D2,Metricas_Datos!F:F)</f>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f>AVERAGEIF($D:$D,$D2,Metricas_Datos!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f>AVERAGEIF($D:$D,$D2,Metricas_Datos!H:H)</f>
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <f>AVERAGEIF($D:$D,$D2,Metricas_Datos!I:I)</f>
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <f>AVERAGEIF($D:$D,$D2,Metricas_Datos!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <f>AVERAGEIF($D:$D,$D2,Metricas_Datos!K:K)</f>
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <f>AVERAGEIF($D:$D,$D2,Metricas_Datos!L:L)</f>
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <f>AVERAGEIF($D:$D,$D2,Metricas_Datos!M:M)</f>
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <f>AVERAGEIF($D:$D,$D2,Metricas_Datos!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <f>AVERAGEIF($D:$D,$D2,Metricas_Datos!O:O)</f>
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <f>AVERAGEIF($D:$D,$D2,Metricas_Datos!P:P)</f>
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <f>AVERAGEIF($D:$D,$D2,Metricas_Datos!Q:Q)</f>
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <f>AVERAGEIF($D:$D,$D2,Metricas_Datos!R:R)</f>
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <f>AVERAGEIF($D:$D,$D2,Metricas_Datos!S:S)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3">
+        <f>AVERAGEIF($D:$D,$D3,Metricas_Datos!C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f>AVERAGEIF($D:$D,$D3,Metricas_Datos!D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f>AVERAGEIF($D:$D,$D3,Metricas_Datos!E:E)</f>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f>AVERAGEIF($D:$D,$D3,Metricas_Datos!F:F)</f>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f>AVERAGEIF($D:$D,$D3,Metricas_Datos!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f>AVERAGEIF($D:$D,$D3,Metricas_Datos!H:H)</f>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <f>AVERAGEIF($D:$D,$D3,Metricas_Datos!I:I)</f>
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <f>AVERAGEIF($D:$D,$D3,Metricas_Datos!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <f>AVERAGEIF($D:$D,$D3,Metricas_Datos!K:K)</f>
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <f>AVERAGEIF($D:$D,$D3,Metricas_Datos!L:L)</f>
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <f>AVERAGEIF($D:$D,$D3,Metricas_Datos!M:M)</f>
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <f>AVERAGEIF($D:$D,$D3,Metricas_Datos!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <f>AVERAGEIF($D:$D,$D3,Metricas_Datos!O:O)</f>
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <f>AVERAGEIF($D:$D,$D3,Metricas_Datos!P:P)</f>
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <f>AVERAGEIF($D:$D,$D3,Metricas_Datos!Q:Q)</f>
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <f>AVERAGEIF($D:$D,$D3,Metricas_Datos!R:R)</f>
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <f>AVERAGEIF($D:$D,$D3,Metricas_Datos!S:S)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <f>AVERAGEIF($D:$D,$D4,Metricas_Datos!C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f>AVERAGEIF($D:$D,$D4,Metricas_Datos!D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f>AVERAGEIF($D:$D,$D4,Metricas_Datos!E:E)</f>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f>AVERAGEIF($D:$D,$D4,Metricas_Datos!F:F)</f>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f>AVERAGEIF($D:$D,$D4,Metricas_Datos!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f>AVERAGEIF($D:$D,$D4,Metricas_Datos!H:H)</f>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f>AVERAGEIF($D:$D,$D4,Metricas_Datos!I:I)</f>
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <f>AVERAGEIF($D:$D,$D4,Metricas_Datos!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <f>AVERAGEIF($D:$D,$D4,Metricas_Datos!K:K)</f>
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <f>AVERAGEIF($D:$D,$D4,Metricas_Datos!L:L)</f>
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <f>AVERAGEIF($D:$D,$D4,Metricas_Datos!M:M)</f>
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <f>AVERAGEIF($D:$D,$D4,Metricas_Datos!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <f>AVERAGEIF($D:$D,$D4,Metricas_Datos!O:O)</f>
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <f>AVERAGEIF($D:$D,$D4,Metricas_Datos!P:P)</f>
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <f>AVERAGEIF($D:$D,$D4,Metricas_Datos!Q:Q)</f>
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <f>AVERAGEIF($D:$D,$D4,Metricas_Datos!R:R)</f>
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <f>AVERAGEIF($D:$D,$D4,Metricas_Datos!S:S)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <f>AVERAGEIF($D:$D,$D5,Metricas_Datos!C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f>AVERAGEIF($D:$D,$D5,Metricas_Datos!D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f>AVERAGEIF($D:$D,$D5,Metricas_Datos!E:E)</f>
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <f>AVERAGEIF($D:$D,$D5,Metricas_Datos!F:F)</f>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f>AVERAGEIF($D:$D,$D5,Metricas_Datos!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f>AVERAGEIF($D:$D,$D5,Metricas_Datos!H:H)</f>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <f>AVERAGEIF($D:$D,$D5,Metricas_Datos!I:I)</f>
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <f>AVERAGEIF($D:$D,$D5,Metricas_Datos!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <f>AVERAGEIF($D:$D,$D5,Metricas_Datos!K:K)</f>
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <f>AVERAGEIF($D:$D,$D5,Metricas_Datos!L:L)</f>
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <f>AVERAGEIF($D:$D,$D5,Metricas_Datos!M:M)</f>
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <f>AVERAGEIF($D:$D,$D5,Metricas_Datos!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <f>AVERAGEIF($D:$D,$D5,Metricas_Datos!O:O)</f>
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <f>AVERAGEIF($D:$D,$D5,Metricas_Datos!P:P)</f>
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <f>AVERAGEIF($D:$D,$D5,Metricas_Datos!Q:Q)</f>
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <f>AVERAGEIF($D:$D,$D5,Metricas_Datos!R:R)</f>
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <f>AVERAGEIF($D:$D,$D5,Metricas_Datos!S:S)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <f>AVERAGEIF($D:$D,$D6,Metricas_Datos!C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f>AVERAGEIF($D:$D,$D6,Metricas_Datos!D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f>AVERAGEIF($D:$D,$D6,Metricas_Datos!E:E)</f>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f>AVERAGEIF($D:$D,$D6,Metricas_Datos!F:F)</f>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f>AVERAGEIF($D:$D,$D6,Metricas_Datos!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f>AVERAGEIF($D:$D,$D6,Metricas_Datos!H:H)</f>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <f>AVERAGEIF($D:$D,$D6,Metricas_Datos!I:I)</f>
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <f>AVERAGEIF($D:$D,$D6,Metricas_Datos!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <f>AVERAGEIF($D:$D,$D6,Metricas_Datos!K:K)</f>
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <f>AVERAGEIF($D:$D,$D6,Metricas_Datos!L:L)</f>
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <f>AVERAGEIF($D:$D,$D6,Metricas_Datos!M:M)</f>
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <f>AVERAGEIF($D:$D,$D6,Metricas_Datos!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <f>AVERAGEIF($D:$D,$D6,Metricas_Datos!O:O)</f>
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <f>AVERAGEIF($D:$D,$D6,Metricas_Datos!P:P)</f>
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <f>AVERAGEIF($D:$D,$D6,Metricas_Datos!Q:Q)</f>
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <f>AVERAGEIF($D:$D,$D6,Metricas_Datos!R:R)</f>
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <f>AVERAGEIF($D:$D,$D6,Metricas_Datos!S:S)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <f>AVERAGEIF($D:$D,$D7,Metricas_Datos!C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f>AVERAGEIF($D:$D,$D7,Metricas_Datos!D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f>AVERAGEIF($D:$D,$D7,Metricas_Datos!E:E)</f>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f>AVERAGEIF($D:$D,$D7,Metricas_Datos!F:F)</f>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f>AVERAGEIF($D:$D,$D7,Metricas_Datos!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f>AVERAGEIF($D:$D,$D7,Metricas_Datos!H:H)</f>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f>AVERAGEIF($D:$D,$D7,Metricas_Datos!I:I)</f>
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f>AVERAGEIF($D:$D,$D7,Metricas_Datos!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f>AVERAGEIF($D:$D,$D7,Metricas_Datos!K:K)</f>
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <f>AVERAGEIF($D:$D,$D7,Metricas_Datos!L:L)</f>
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <f>AVERAGEIF($D:$D,$D7,Metricas_Datos!M:M)</f>
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <f>AVERAGEIF($D:$D,$D7,Metricas_Datos!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <f>AVERAGEIF($D:$D,$D7,Metricas_Datos!O:O)</f>
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <f>AVERAGEIF($D:$D,$D7,Metricas_Datos!P:P)</f>
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <f>AVERAGEIF($D:$D,$D7,Metricas_Datos!Q:Q)</f>
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <f>AVERAGEIF($D:$D,$D7,Metricas_Datos!R:R)</f>
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <f>AVERAGEIF($D:$D,$D7,Metricas_Datos!S:S)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <f>AVERAGEIF($D:$D,$D8,Metricas_Datos!C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f>AVERAGEIF($D:$D,$D8,Metricas_Datos!D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f>AVERAGEIF($D:$D,$D8,Metricas_Datos!E:E)</f>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f>AVERAGEIF($D:$D,$D8,Metricas_Datos!F:F)</f>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f>AVERAGEIF($D:$D,$D8,Metricas_Datos!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f>AVERAGEIF($D:$D,$D8,Metricas_Datos!H:H)</f>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f>AVERAGEIF($D:$D,$D8,Metricas_Datos!I:I)</f>
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <f>AVERAGEIF($D:$D,$D8,Metricas_Datos!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <f>AVERAGEIF($D:$D,$D8,Metricas_Datos!K:K)</f>
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <f>AVERAGEIF($D:$D,$D8,Metricas_Datos!L:L)</f>
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <f>AVERAGEIF($D:$D,$D8,Metricas_Datos!M:M)</f>
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <f>AVERAGEIF($D:$D,$D8,Metricas_Datos!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <f>AVERAGEIF($D:$D,$D8,Metricas_Datos!O:O)</f>
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <f>AVERAGEIF($D:$D,$D8,Metricas_Datos!P:P)</f>
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <f>AVERAGEIF($D:$D,$D8,Metricas_Datos!Q:Q)</f>
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <f>AVERAGEIF($D:$D,$D8,Metricas_Datos!R:R)</f>
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <f>AVERAGEIF($D:$D,$D8,Metricas_Datos!S:S)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9">
+        <f>AVERAGEIF($D:$D,$D9,Metricas_Datos!C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f>AVERAGEIF($D:$D,$D9,Metricas_Datos!D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f>AVERAGEIF($D:$D,$D9,Metricas_Datos!E:E)</f>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f>AVERAGEIF($D:$D,$D9,Metricas_Datos!F:F)</f>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f>AVERAGEIF($D:$D,$D9,Metricas_Datos!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f>AVERAGEIF($D:$D,$D9,Metricas_Datos!H:H)</f>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <f>AVERAGEIF($D:$D,$D9,Metricas_Datos!I:I)</f>
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <f>AVERAGEIF($D:$D,$D9,Metricas_Datos!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <f>AVERAGEIF($D:$D,$D9,Metricas_Datos!K:K)</f>
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <f>AVERAGEIF($D:$D,$D9,Metricas_Datos!L:L)</f>
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <f>AVERAGEIF($D:$D,$D9,Metricas_Datos!M:M)</f>
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <f>AVERAGEIF($D:$D,$D9,Metricas_Datos!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <f>AVERAGEIF($D:$D,$D9,Metricas_Datos!O:O)</f>
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <f>AVERAGEIF($D:$D,$D9,Metricas_Datos!P:P)</f>
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <f>AVERAGEIF($D:$D,$D9,Metricas_Datos!Q:Q)</f>
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <f>AVERAGEIF($D:$D,$D9,Metricas_Datos!R:R)</f>
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <f>AVERAGEIF($D:$D,$D9,Metricas_Datos!S:S)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10">
+        <f>AVERAGEIF($D:$D,$D10,Metricas_Datos!C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f>AVERAGEIF($D:$D,$D10,Metricas_Datos!D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f>AVERAGEIF($D:$D,$D10,Metricas_Datos!E:E)</f>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f>AVERAGEIF($D:$D,$D10,Metricas_Datos!F:F)</f>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f>AVERAGEIF($D:$D,$D10,Metricas_Datos!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f>AVERAGEIF($D:$D,$D10,Metricas_Datos!H:H)</f>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <f>AVERAGEIF($D:$D,$D10,Metricas_Datos!I:I)</f>
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <f>AVERAGEIF($D:$D,$D10,Metricas_Datos!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <f>AVERAGEIF($D:$D,$D10,Metricas_Datos!K:K)</f>
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <f>AVERAGEIF($D:$D,$D10,Metricas_Datos!L:L)</f>
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <f>AVERAGEIF($D:$D,$D10,Metricas_Datos!M:M)</f>
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <f>AVERAGEIF($D:$D,$D10,Metricas_Datos!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <f>AVERAGEIF($D:$D,$D10,Metricas_Datos!O:O)</f>
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <f>AVERAGEIF($D:$D,$D10,Metricas_Datos!P:P)</f>
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <f>AVERAGEIF($D:$D,$D10,Metricas_Datos!Q:Q)</f>
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <f>AVERAGEIF($D:$D,$D10,Metricas_Datos!R:R)</f>
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <f>AVERAGEIF($D:$D,$D10,Metricas_Datos!S:S)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11">
+        <f>AVERAGEIF($D:$D,$D11,Metricas_Datos!C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f>AVERAGEIF($D:$D,$D11,Metricas_Datos!D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f>AVERAGEIF($D:$D,$D11,Metricas_Datos!E:E)</f>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f>AVERAGEIF($D:$D,$D11,Metricas_Datos!F:F)</f>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f>AVERAGEIF($D:$D,$D11,Metricas_Datos!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f>AVERAGEIF($D:$D,$D11,Metricas_Datos!H:H)</f>
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <f>AVERAGEIF($D:$D,$D11,Metricas_Datos!I:I)</f>
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <f>AVERAGEIF($D:$D,$D11,Metricas_Datos!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <f>AVERAGEIF($D:$D,$D11,Metricas_Datos!K:K)</f>
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <f>AVERAGEIF($D:$D,$D11,Metricas_Datos!L:L)</f>
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <f>AVERAGEIF($D:$D,$D11,Metricas_Datos!M:M)</f>
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <f>AVERAGEIF($D:$D,$D11,Metricas_Datos!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <f>AVERAGEIF($D:$D,$D11,Metricas_Datos!O:O)</f>
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <f>AVERAGEIF($D:$D,$D11,Metricas_Datos!P:P)</f>
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <f>AVERAGEIF($D:$D,$D11,Metricas_Datos!Q:Q)</f>
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <f>AVERAGEIF($D:$D,$D11,Metricas_Datos!R:R)</f>
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <f>AVERAGEIF($D:$D,$D11,Metricas_Datos!S:S)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12">
+        <f>AVERAGEIF($D:$D,$D12,Metricas_Datos!C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f>AVERAGEIF($D:$D,$D12,Metricas_Datos!D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f>AVERAGEIF($D:$D,$D12,Metricas_Datos!E:E)</f>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f>AVERAGEIF($D:$D,$D12,Metricas_Datos!F:F)</f>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f>AVERAGEIF($D:$D,$D12,Metricas_Datos!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <f>AVERAGEIF($D:$D,$D12,Metricas_Datos!H:H)</f>
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <f>AVERAGEIF($D:$D,$D12,Metricas_Datos!I:I)</f>
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <f>AVERAGEIF($D:$D,$D12,Metricas_Datos!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <f>AVERAGEIF($D:$D,$D12,Metricas_Datos!K:K)</f>
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <f>AVERAGEIF($D:$D,$D12,Metricas_Datos!L:L)</f>
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <f>AVERAGEIF($D:$D,$D12,Metricas_Datos!M:M)</f>
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <f>AVERAGEIF($D:$D,$D12,Metricas_Datos!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <f>AVERAGEIF($D:$D,$D12,Metricas_Datos!O:O)</f>
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <f>AVERAGEIF($D:$D,$D12,Metricas_Datos!P:P)</f>
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <f>AVERAGEIF($D:$D,$D12,Metricas_Datos!Q:Q)</f>
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <f>AVERAGEIF($D:$D,$D12,Metricas_Datos!R:R)</f>
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <f>AVERAGEIF($D:$D,$D12,Metricas_Datos!S:S)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13">
+        <f>AVERAGEIF($D:$D,$D13,Metricas_Datos!C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f>AVERAGEIF($D:$D,$D13,Metricas_Datos!D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <f>AVERAGEIF($D:$D,$D13,Metricas_Datos!E:E)</f>
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <f>AVERAGEIF($D:$D,$D13,Metricas_Datos!F:F)</f>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f>AVERAGEIF($D:$D,$D13,Metricas_Datos!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <f>AVERAGEIF($D:$D,$D13,Metricas_Datos!H:H)</f>
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <f>AVERAGEIF($D:$D,$D13,Metricas_Datos!I:I)</f>
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <f>AVERAGEIF($D:$D,$D13,Metricas_Datos!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <f>AVERAGEIF($D:$D,$D13,Metricas_Datos!K:K)</f>
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <f>AVERAGEIF($D:$D,$D13,Metricas_Datos!L:L)</f>
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <f>AVERAGEIF($D:$D,$D13,Metricas_Datos!M:M)</f>
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <f>AVERAGEIF($D:$D,$D13,Metricas_Datos!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <f>AVERAGEIF($D:$D,$D13,Metricas_Datos!O:O)</f>
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <f>AVERAGEIF($D:$D,$D13,Metricas_Datos!P:P)</f>
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <f>AVERAGEIF($D:$D,$D13,Metricas_Datos!Q:Q)</f>
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <f>AVERAGEIF($D:$D,$D13,Metricas_Datos!R:R)</f>
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <f>AVERAGEIF($D:$D,$D13,Metricas_Datos!S:S)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14">
+        <f>AVERAGEIF($D:$D,$D14,Metricas_Datos!C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <f>AVERAGEIF($D:$D,$D14,Metricas_Datos!D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <f>AVERAGEIF($D:$D,$D14,Metricas_Datos!E:E)</f>
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <f>AVERAGEIF($D:$D,$D14,Metricas_Datos!F:F)</f>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f>AVERAGEIF($D:$D,$D14,Metricas_Datos!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <f>AVERAGEIF($D:$D,$D14,Metricas_Datos!H:H)</f>
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <f>AVERAGEIF($D:$D,$D14,Metricas_Datos!I:I)</f>
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <f>AVERAGEIF($D:$D,$D14,Metricas_Datos!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <f>AVERAGEIF($D:$D,$D14,Metricas_Datos!K:K)</f>
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <f>AVERAGEIF($D:$D,$D14,Metricas_Datos!L:L)</f>
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <f>AVERAGEIF($D:$D,$D14,Metricas_Datos!M:M)</f>
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <f>AVERAGEIF($D:$D,$D14,Metricas_Datos!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <f>AVERAGEIF($D:$D,$D14,Metricas_Datos!O:O)</f>
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <f>AVERAGEIF($D:$D,$D14,Metricas_Datos!P:P)</f>
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <f>AVERAGEIF($D:$D,$D14,Metricas_Datos!Q:Q)</f>
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <f>AVERAGEIF($D:$D,$D14,Metricas_Datos!R:R)</f>
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <f>AVERAGEIF($D:$D,$D14,Metricas_Datos!S:S)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15">
+        <f>AVERAGEIF($D:$D,$D15,Metricas_Datos!C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <f>AVERAGEIF($D:$D,$D15,Metricas_Datos!D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <f>AVERAGEIF($D:$D,$D15,Metricas_Datos!E:E)</f>
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <f>AVERAGEIF($D:$D,$D15,Metricas_Datos!F:F)</f>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f>AVERAGEIF($D:$D,$D15,Metricas_Datos!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <f>AVERAGEIF($D:$D,$D15,Metricas_Datos!H:H)</f>
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <f>AVERAGEIF($D:$D,$D15,Metricas_Datos!I:I)</f>
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <f>AVERAGEIF($D:$D,$D15,Metricas_Datos!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <f>AVERAGEIF($D:$D,$D15,Metricas_Datos!K:K)</f>
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <f>AVERAGEIF($D:$D,$D15,Metricas_Datos!L:L)</f>
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <f>AVERAGEIF($D:$D,$D15,Metricas_Datos!M:M)</f>
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <f>AVERAGEIF($D:$D,$D15,Metricas_Datos!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <f>AVERAGEIF($D:$D,$D15,Metricas_Datos!O:O)</f>
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <f>AVERAGEIF($D:$D,$D15,Metricas_Datos!P:P)</f>
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <f>AVERAGEIF($D:$D,$D15,Metricas_Datos!Q:Q)</f>
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <f>AVERAGEIF($D:$D,$D15,Metricas_Datos!R:R)</f>
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <f>AVERAGEIF($D:$D,$D15,Metricas_Datos!S:S)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16">
+        <f>AVERAGEIF($D:$D,$D16,Metricas_Datos!C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <f>AVERAGEIF($D:$D,$D16,Metricas_Datos!D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <f>AVERAGEIF($D:$D,$D16,Metricas_Datos!E:E)</f>
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <f>AVERAGEIF($D:$D,$D16,Metricas_Datos!F:F)</f>
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <f>AVERAGEIF($D:$D,$D16,Metricas_Datos!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <f>AVERAGEIF($D:$D,$D16,Metricas_Datos!H:H)</f>
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <f>AVERAGEIF($D:$D,$D16,Metricas_Datos!I:I)</f>
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <f>AVERAGEIF($D:$D,$D16,Metricas_Datos!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <f>AVERAGEIF($D:$D,$D16,Metricas_Datos!K:K)</f>
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <f>AVERAGEIF($D:$D,$D16,Metricas_Datos!L:L)</f>
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <f>AVERAGEIF($D:$D,$D16,Metricas_Datos!M:M)</f>
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <f>AVERAGEIF($D:$D,$D16,Metricas_Datos!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <f>AVERAGEIF($D:$D,$D16,Metricas_Datos!O:O)</f>
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <f>AVERAGEIF($D:$D,$D16,Metricas_Datos!P:P)</f>
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <f>AVERAGEIF($D:$D,$D16,Metricas_Datos!Q:Q)</f>
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <f>AVERAGEIF($D:$D,$D16,Metricas_Datos!R:R)</f>
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <f>AVERAGEIF($D:$D,$D16,Metricas_Datos!S:S)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17">
+        <f>AVERAGEIF($D:$D,$D17,Metricas_Datos!C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <f>AVERAGEIF($D:$D,$D17,Metricas_Datos!D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <f>AVERAGEIF($D:$D,$D17,Metricas_Datos!E:E)</f>
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <f>AVERAGEIF($D:$D,$D17,Metricas_Datos!F:F)</f>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f>AVERAGEIF($D:$D,$D17,Metricas_Datos!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <f>AVERAGEIF($D:$D,$D17,Metricas_Datos!H:H)</f>
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <f>AVERAGEIF($D:$D,$D17,Metricas_Datos!I:I)</f>
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <f>AVERAGEIF($D:$D,$D17,Metricas_Datos!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <f>AVERAGEIF($D:$D,$D17,Metricas_Datos!K:K)</f>
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <f>AVERAGEIF($D:$D,$D17,Metricas_Datos!L:L)</f>
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <f>AVERAGEIF($D:$D,$D17,Metricas_Datos!M:M)</f>
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <f>AVERAGEIF($D:$D,$D17,Metricas_Datos!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <f>AVERAGEIF($D:$D,$D17,Metricas_Datos!O:O)</f>
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <f>AVERAGEIF($D:$D,$D17,Metricas_Datos!P:P)</f>
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <f>AVERAGEIF($D:$D,$D17,Metricas_Datos!Q:Q)</f>
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <f>AVERAGEIF($D:$D,$D17,Metricas_Datos!R:R)</f>
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <f>AVERAGEIF($D:$D,$D17,Metricas_Datos!S:S)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18">
+        <f>AVERAGEIF($D:$D,$D18,Metricas_Datos!C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <f>AVERAGEIF($D:$D,$D18,Metricas_Datos!D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <f>AVERAGEIF($D:$D,$D18,Metricas_Datos!E:E)</f>
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <f>AVERAGEIF($D:$D,$D18,Metricas_Datos!F:F)</f>
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <f>AVERAGEIF($D:$D,$D18,Metricas_Datos!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <f>AVERAGEIF($D:$D,$D18,Metricas_Datos!H:H)</f>
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <f>AVERAGEIF($D:$D,$D18,Metricas_Datos!I:I)</f>
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <f>AVERAGEIF($D:$D,$D18,Metricas_Datos!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <f>AVERAGEIF($D:$D,$D18,Metricas_Datos!K:K)</f>
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <f>AVERAGEIF($D:$D,$D18,Metricas_Datos!L:L)</f>
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <f>AVERAGEIF($D:$D,$D18,Metricas_Datos!M:M)</f>
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <f>AVERAGEIF($D:$D,$D18,Metricas_Datos!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <f>AVERAGEIF($D:$D,$D18,Metricas_Datos!O:O)</f>
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <f>AVERAGEIF($D:$D,$D18,Metricas_Datos!P:P)</f>
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <f>AVERAGEIF($D:$D,$D18,Metricas_Datos!Q:Q)</f>
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <f>AVERAGEIF($D:$D,$D18,Metricas_Datos!R:R)</f>
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <f>AVERAGEIF($D:$D,$D18,Metricas_Datos!S:S)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19">
+        <f>AVERAGEIF($D:$D,$D19,Metricas_Datos!C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <f>AVERAGEIF($D:$D,$D19,Metricas_Datos!D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <f>AVERAGEIF($D:$D,$D19,Metricas_Datos!E:E)</f>
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <f>AVERAGEIF($D:$D,$D19,Metricas_Datos!F:F)</f>
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <f>AVERAGEIF($D:$D,$D19,Metricas_Datos!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <f>AVERAGEIF($D:$D,$D19,Metricas_Datos!H:H)</f>
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <f>AVERAGEIF($D:$D,$D19,Metricas_Datos!I:I)</f>
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <f>AVERAGEIF($D:$D,$D19,Metricas_Datos!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <f>AVERAGEIF($D:$D,$D19,Metricas_Datos!K:K)</f>
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <f>AVERAGEIF($D:$D,$D19,Metricas_Datos!L:L)</f>
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <f>AVERAGEIF($D:$D,$D19,Metricas_Datos!M:M)</f>
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <f>AVERAGEIF($D:$D,$D19,Metricas_Datos!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <f>AVERAGEIF($D:$D,$D19,Metricas_Datos!O:O)</f>
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <f>AVERAGEIF($D:$D,$D19,Metricas_Datos!P:P)</f>
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <f>AVERAGEIF($D:$D,$D19,Metricas_Datos!Q:Q)</f>
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <f>AVERAGEIF($D:$D,$D19,Metricas_Datos!R:R)</f>
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <f>AVERAGEIF($D:$D,$D19,Metricas_Datos!S:S)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20">
+        <f>AVERAGEIF($D:$D,$D20,Metricas_Datos!C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <f>AVERAGEIF($D:$D,$D20,Metricas_Datos!D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <f>AVERAGEIF($D:$D,$D20,Metricas_Datos!E:E)</f>
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <f>AVERAGEIF($D:$D,$D20,Metricas_Datos!F:F)</f>
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <f>AVERAGEIF($D:$D,$D20,Metricas_Datos!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <f>AVERAGEIF($D:$D,$D20,Metricas_Datos!H:H)</f>
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <f>AVERAGEIF($D:$D,$D20,Metricas_Datos!I:I)</f>
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <f>AVERAGEIF($D:$D,$D20,Metricas_Datos!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <f>AVERAGEIF($D:$D,$D20,Metricas_Datos!K:K)</f>
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <f>AVERAGEIF($D:$D,$D20,Metricas_Datos!L:L)</f>
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <f>AVERAGEIF($D:$D,$D20,Metricas_Datos!M:M)</f>
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <f>AVERAGEIF($D:$D,$D20,Metricas_Datos!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <f>AVERAGEIF($D:$D,$D20,Metricas_Datos!O:O)</f>
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <f>AVERAGEIF($D:$D,$D20,Metricas_Datos!P:P)</f>
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <f>AVERAGEIF($D:$D,$D20,Metricas_Datos!Q:Q)</f>
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <f>AVERAGEIF($D:$D,$D20,Metricas_Datos!R:R)</f>
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <f>AVERAGEIF($D:$D,$D20,Metricas_Datos!S:S)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21">
+        <f>AVERAGEIF($D:$D,$D21,Metricas_Datos!C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <f>AVERAGEIF($D:$D,$D21,Metricas_Datos!D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <f>AVERAGEIF($D:$D,$D21,Metricas_Datos!E:E)</f>
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <f>AVERAGEIF($D:$D,$D21,Metricas_Datos!F:F)</f>
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <f>AVERAGEIF($D:$D,$D21,Metricas_Datos!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <f>AVERAGEIF($D:$D,$D21,Metricas_Datos!H:H)</f>
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <f>AVERAGEIF($D:$D,$D21,Metricas_Datos!I:I)</f>
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <f>AVERAGEIF($D:$D,$D21,Metricas_Datos!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <f>AVERAGEIF($D:$D,$D21,Metricas_Datos!K:K)</f>
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <f>AVERAGEIF($D:$D,$D21,Metricas_Datos!L:L)</f>
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <f>AVERAGEIF($D:$D,$D21,Metricas_Datos!M:M)</f>
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <f>AVERAGEIF($D:$D,$D21,Metricas_Datos!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <f>AVERAGEIF($D:$D,$D21,Metricas_Datos!O:O)</f>
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <f>AVERAGEIF($D:$D,$D21,Metricas_Datos!P:P)</f>
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <f>AVERAGEIF($D:$D,$D21,Metricas_Datos!Q:Q)</f>
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <f>AVERAGEIF($D:$D,$D21,Metricas_Datos!R:R)</f>
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <f>AVERAGEIF($D:$D,$D21,Metricas_Datos!S:S)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22">
+        <f>AVERAGEIF($D:$D,$D22,Metricas_Datos!C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <f>AVERAGEIF($D:$D,$D22,Metricas_Datos!D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <f>AVERAGEIF($D:$D,$D22,Metricas_Datos!E:E)</f>
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <f>AVERAGEIF($D:$D,$D22,Metricas_Datos!F:F)</f>
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <f>AVERAGEIF($D:$D,$D22,Metricas_Datos!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <f>AVERAGEIF($D:$D,$D22,Metricas_Datos!H:H)</f>
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <f>AVERAGEIF($D:$D,$D22,Metricas_Datos!I:I)</f>
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <f>AVERAGEIF($D:$D,$D22,Metricas_Datos!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <f>AVERAGEIF($D:$D,$D22,Metricas_Datos!K:K)</f>
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <f>AVERAGEIF($D:$D,$D22,Metricas_Datos!L:L)</f>
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <f>AVERAGEIF($D:$D,$D22,Metricas_Datos!M:M)</f>
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <f>AVERAGEIF($D:$D,$D22,Metricas_Datos!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <f>AVERAGEIF($D:$D,$D22,Metricas_Datos!O:O)</f>
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <f>AVERAGEIF($D:$D,$D22,Metricas_Datos!P:P)</f>
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <f>AVERAGEIF($D:$D,$D22,Metricas_Datos!Q:Q)</f>
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <f>AVERAGEIF($D:$D,$D22,Metricas_Datos!R:R)</f>
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <f>AVERAGEIF($D:$D,$D22,Metricas_Datos!S:S)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23">
+        <f>AVERAGEIF($D:$D,$D23,Metricas_Datos!C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <f>AVERAGEIF($D:$D,$D23,Metricas_Datos!D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <f>AVERAGEIF($D:$D,$D23,Metricas_Datos!E:E)</f>
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <f>AVERAGEIF($D:$D,$D23,Metricas_Datos!F:F)</f>
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <f>AVERAGEIF($D:$D,$D23,Metricas_Datos!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <f>AVERAGEIF($D:$D,$D23,Metricas_Datos!H:H)</f>
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <f>AVERAGEIF($D:$D,$D23,Metricas_Datos!I:I)</f>
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <f>AVERAGEIF($D:$D,$D23,Metricas_Datos!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <f>AVERAGEIF($D:$D,$D23,Metricas_Datos!K:K)</f>
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <f>AVERAGEIF($D:$D,$D23,Metricas_Datos!L:L)</f>
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <f>AVERAGEIF($D:$D,$D23,Metricas_Datos!M:M)</f>
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <f>AVERAGEIF($D:$D,$D23,Metricas_Datos!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <f>AVERAGEIF($D:$D,$D23,Metricas_Datos!O:O)</f>
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <f>AVERAGEIF($D:$D,$D23,Metricas_Datos!P:P)</f>
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <f>AVERAGEIF($D:$D,$D23,Metricas_Datos!Q:Q)</f>
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <f>AVERAGEIF($D:$D,$D23,Metricas_Datos!R:R)</f>
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <f>AVERAGEIF($D:$D,$D23,Metricas_Datos!S:S)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24">
+        <f>AVERAGEIF($D:$D,$D24,Metricas_Datos!C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <f>AVERAGEIF($D:$D,$D24,Metricas_Datos!D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <f>AVERAGEIF($D:$D,$D24,Metricas_Datos!E:E)</f>
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <f>AVERAGEIF($D:$D,$D24,Metricas_Datos!F:F)</f>
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <f>AVERAGEIF($D:$D,$D24,Metricas_Datos!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <f>AVERAGEIF($D:$D,$D24,Metricas_Datos!H:H)</f>
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <f>AVERAGEIF($D:$D,$D24,Metricas_Datos!I:I)</f>
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <f>AVERAGEIF($D:$D,$D24,Metricas_Datos!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <f>AVERAGEIF($D:$D,$D24,Metricas_Datos!K:K)</f>
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <f>AVERAGEIF($D:$D,$D24,Metricas_Datos!L:L)</f>
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <f>AVERAGEIF($D:$D,$D24,Metricas_Datos!M:M)</f>
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <f>AVERAGEIF($D:$D,$D24,Metricas_Datos!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <f>AVERAGEIF($D:$D,$D24,Metricas_Datos!O:O)</f>
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <f>AVERAGEIF($D:$D,$D24,Metricas_Datos!P:P)</f>
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <f>AVERAGEIF($D:$D,$D24,Metricas_Datos!Q:Q)</f>
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <f>AVERAGEIF($D:$D,$D24,Metricas_Datos!R:R)</f>
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <f>AVERAGEIF($D:$D,$D24,Metricas_Datos!S:S)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25">
+        <f>AVERAGEIF($D:$D,$D25,Metricas_Datos!C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <f>AVERAGEIF($D:$D,$D25,Metricas_Datos!D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <f>AVERAGEIF($D:$D,$D25,Metricas_Datos!E:E)</f>
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <f>AVERAGEIF($D:$D,$D25,Metricas_Datos!F:F)</f>
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <f>AVERAGEIF($D:$D,$D25,Metricas_Datos!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <f>AVERAGEIF($D:$D,$D25,Metricas_Datos!H:H)</f>
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <f>AVERAGEIF($D:$D,$D25,Metricas_Datos!I:I)</f>
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <f>AVERAGEIF($D:$D,$D25,Metricas_Datos!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <f>AVERAGEIF($D:$D,$D25,Metricas_Datos!K:K)</f>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <f>AVERAGEIF($D:$D,$D25,Metricas_Datos!L:L)</f>
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <f>AVERAGEIF($D:$D,$D25,Metricas_Datos!M:M)</f>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <f>AVERAGEIF($D:$D,$D25,Metricas_Datos!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <f>AVERAGEIF($D:$D,$D25,Metricas_Datos!O:O)</f>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <f>AVERAGEIF($D:$D,$D25,Metricas_Datos!P:P)</f>
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <f>AVERAGEIF($D:$D,$D25,Metricas_Datos!Q:Q)</f>
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <f>AVERAGEIF($D:$D,$D25,Metricas_Datos!R:R)</f>
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <f>AVERAGEIF($D:$D,$D25,Metricas_Datos!S:S)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="A26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26">
+        <f>AVERAGEIF($D:$D,$D26,Metricas_Datos!C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <f>AVERAGEIF($D:$D,$D26,Metricas_Datos!D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <f>AVERAGEIF($D:$D,$D26,Metricas_Datos!E:E)</f>
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <f>AVERAGEIF($D:$D,$D26,Metricas_Datos!F:F)</f>
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <f>AVERAGEIF($D:$D,$D26,Metricas_Datos!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <f>AVERAGEIF($D:$D,$D26,Metricas_Datos!H:H)</f>
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <f>AVERAGEIF($D:$D,$D26,Metricas_Datos!I:I)</f>
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <f>AVERAGEIF($D:$D,$D26,Metricas_Datos!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <f>AVERAGEIF($D:$D,$D26,Metricas_Datos!K:K)</f>
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <f>AVERAGEIF($D:$D,$D26,Metricas_Datos!L:L)</f>
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <f>AVERAGEIF($D:$D,$D26,Metricas_Datos!M:M)</f>
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <f>AVERAGEIF($D:$D,$D26,Metricas_Datos!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <f>AVERAGEIF($D:$D,$D26,Metricas_Datos!O:O)</f>
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <f>AVERAGEIF($D:$D,$D26,Metricas_Datos!P:P)</f>
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <f>AVERAGEIF($D:$D,$D26,Metricas_Datos!Q:Q)</f>
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <f>AVERAGEIF($D:$D,$D26,Metricas_Datos!R:R)</f>
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <f>AVERAGEIF($D:$D,$D26,Metricas_Datos!S:S)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="A27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27">
+        <f>AVERAGEIF($D:$D,$D27,Metricas_Datos!C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <f>AVERAGEIF($D:$D,$D27,Metricas_Datos!D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <f>AVERAGEIF($D:$D,$D27,Metricas_Datos!E:E)</f>
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <f>AVERAGEIF($D:$D,$D27,Metricas_Datos!F:F)</f>
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <f>AVERAGEIF($D:$D,$D27,Metricas_Datos!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <f>AVERAGEIF($D:$D,$D27,Metricas_Datos!H:H)</f>
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <f>AVERAGEIF($D:$D,$D27,Metricas_Datos!I:I)</f>
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <f>AVERAGEIF($D:$D,$D27,Metricas_Datos!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <f>AVERAGEIF($D:$D,$D27,Metricas_Datos!K:K)</f>
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <f>AVERAGEIF($D:$D,$D27,Metricas_Datos!L:L)</f>
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <f>AVERAGEIF($D:$D,$D27,Metricas_Datos!M:M)</f>
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <f>AVERAGEIF($D:$D,$D27,Metricas_Datos!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <f>AVERAGEIF($D:$D,$D27,Metricas_Datos!O:O)</f>
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <f>AVERAGEIF($D:$D,$D27,Metricas_Datos!P:P)</f>
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <f>AVERAGEIF($D:$D,$D27,Metricas_Datos!Q:Q)</f>
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <f>AVERAGEIF($D:$D,$D27,Metricas_Datos!R:R)</f>
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <f>AVERAGEIF($D:$D,$D27,Metricas_Datos!S:S)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28">
+        <f>AVERAGEIF($D:$D,$D28,Metricas_Datos!C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <f>AVERAGEIF($D:$D,$D28,Metricas_Datos!D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <f>AVERAGEIF($D:$D,$D28,Metricas_Datos!E:E)</f>
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <f>AVERAGEIF($D:$D,$D28,Metricas_Datos!F:F)</f>
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <f>AVERAGEIF($D:$D,$D28,Metricas_Datos!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <f>AVERAGEIF($D:$D,$D28,Metricas_Datos!H:H)</f>
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <f>AVERAGEIF($D:$D,$D28,Metricas_Datos!I:I)</f>
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <f>AVERAGEIF($D:$D,$D28,Metricas_Datos!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <f>AVERAGEIF($D:$D,$D28,Metricas_Datos!K:K)</f>
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <f>AVERAGEIF($D:$D,$D28,Metricas_Datos!L:L)</f>
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <f>AVERAGEIF($D:$D,$D28,Metricas_Datos!M:M)</f>
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <f>AVERAGEIF($D:$D,$D28,Metricas_Datos!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <f>AVERAGEIF($D:$D,$D28,Metricas_Datos!O:O)</f>
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <f>AVERAGEIF($D:$D,$D28,Metricas_Datos!P:P)</f>
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <f>AVERAGEIF($D:$D,$D28,Metricas_Datos!Q:Q)</f>
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <f>AVERAGEIF($D:$D,$D28,Metricas_Datos!R:R)</f>
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <f>AVERAGEIF($D:$D,$D28,Metricas_Datos!S:S)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
+      <c r="A29" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29">
+        <f>AVERAGEIF($D:$D,$D29,Metricas_Datos!C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <f>AVERAGEIF($D:$D,$D29,Metricas_Datos!D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <f>AVERAGEIF($D:$D,$D29,Metricas_Datos!E:E)</f>
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <f>AVERAGEIF($D:$D,$D29,Metricas_Datos!F:F)</f>
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <f>AVERAGEIF($D:$D,$D29,Metricas_Datos!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <f>AVERAGEIF($D:$D,$D29,Metricas_Datos!H:H)</f>
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <f>AVERAGEIF($D:$D,$D29,Metricas_Datos!I:I)</f>
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <f>AVERAGEIF($D:$D,$D29,Metricas_Datos!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <f>AVERAGEIF($D:$D,$D29,Metricas_Datos!K:K)</f>
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <f>AVERAGEIF($D:$D,$D29,Metricas_Datos!L:L)</f>
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <f>AVERAGEIF($D:$D,$D29,Metricas_Datos!M:M)</f>
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <f>AVERAGEIF($D:$D,$D29,Metricas_Datos!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <f>AVERAGEIF($D:$D,$D29,Metricas_Datos!O:O)</f>
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <f>AVERAGEIF($D:$D,$D29,Metricas_Datos!P:P)</f>
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <f>AVERAGEIF($D:$D,$D29,Metricas_Datos!Q:Q)</f>
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <f>AVERAGEIF($D:$D,$D29,Metricas_Datos!R:R)</f>
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <f>AVERAGEIF($D:$D,$D29,Metricas_Datos!S:S)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
+      <c r="A30" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30">
+        <f>AVERAGEIF($D:$D,$D30,Metricas_Datos!C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <f>AVERAGEIF($D:$D,$D30,Metricas_Datos!D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <f>AVERAGEIF($D:$D,$D30,Metricas_Datos!E:E)</f>
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <f>AVERAGEIF($D:$D,$D30,Metricas_Datos!F:F)</f>
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <f>AVERAGEIF($D:$D,$D30,Metricas_Datos!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <f>AVERAGEIF($D:$D,$D30,Metricas_Datos!H:H)</f>
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <f>AVERAGEIF($D:$D,$D30,Metricas_Datos!I:I)</f>
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <f>AVERAGEIF($D:$D,$D30,Metricas_Datos!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <f>AVERAGEIF($D:$D,$D30,Metricas_Datos!K:K)</f>
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <f>AVERAGEIF($D:$D,$D30,Metricas_Datos!L:L)</f>
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <f>AVERAGEIF($D:$D,$D30,Metricas_Datos!M:M)</f>
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <f>AVERAGEIF($D:$D,$D30,Metricas_Datos!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <f>AVERAGEIF($D:$D,$D30,Metricas_Datos!O:O)</f>
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <f>AVERAGEIF($D:$D,$D30,Metricas_Datos!P:P)</f>
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <f>AVERAGEIF($D:$D,$D30,Metricas_Datos!Q:Q)</f>
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <f>AVERAGEIF($D:$D,$D30,Metricas_Datos!R:R)</f>
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <f>AVERAGEIF($D:$D,$D30,Metricas_Datos!S:S)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
+      <c r="A31" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31">
+        <f>AVERAGEIF($D:$D,$D31,Metricas_Datos!C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <f>AVERAGEIF($D:$D,$D31,Metricas_Datos!D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <f>AVERAGEIF($D:$D,$D31,Metricas_Datos!E:E)</f>
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <f>AVERAGEIF($D:$D,$D31,Metricas_Datos!F:F)</f>
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <f>AVERAGEIF($D:$D,$D31,Metricas_Datos!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <f>AVERAGEIF($D:$D,$D31,Metricas_Datos!H:H)</f>
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <f>AVERAGEIF($D:$D,$D31,Metricas_Datos!I:I)</f>
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <f>AVERAGEIF($D:$D,$D31,Metricas_Datos!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <f>AVERAGEIF($D:$D,$D31,Metricas_Datos!K:K)</f>
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <f>AVERAGEIF($D:$D,$D31,Metricas_Datos!L:L)</f>
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <f>AVERAGEIF($D:$D,$D31,Metricas_Datos!M:M)</f>
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <f>AVERAGEIF($D:$D,$D31,Metricas_Datos!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <f>AVERAGEIF($D:$D,$D31,Metricas_Datos!O:O)</f>
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <f>AVERAGEIF($D:$D,$D31,Metricas_Datos!P:P)</f>
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <f>AVERAGEIF($D:$D,$D31,Metricas_Datos!Q:Q)</f>
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <f>AVERAGEIF($D:$D,$D31,Metricas_Datos!R:R)</f>
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <f>AVERAGEIF($D:$D,$D31,Metricas_Datos!S:S)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21">
+      <c r="A32" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32">
+        <f>AVERAGEIF($D:$D,$D32,Metricas_Datos!C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <f>AVERAGEIF($D:$D,$D32,Metricas_Datos!D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <f>AVERAGEIF($D:$D,$D32,Metricas_Datos!E:E)</f>
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <f>AVERAGEIF($D:$D,$D32,Metricas_Datos!F:F)</f>
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <f>AVERAGEIF($D:$D,$D32,Metricas_Datos!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <f>AVERAGEIF($D:$D,$D32,Metricas_Datos!H:H)</f>
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <f>AVERAGEIF($D:$D,$D32,Metricas_Datos!I:I)</f>
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <f>AVERAGEIF($D:$D,$D32,Metricas_Datos!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <f>AVERAGEIF($D:$D,$D32,Metricas_Datos!K:K)</f>
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <f>AVERAGEIF($D:$D,$D32,Metricas_Datos!L:L)</f>
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <f>AVERAGEIF($D:$D,$D32,Metricas_Datos!M:M)</f>
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <f>AVERAGEIF($D:$D,$D32,Metricas_Datos!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <f>AVERAGEIF($D:$D,$D32,Metricas_Datos!O:O)</f>
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <f>AVERAGEIF($D:$D,$D32,Metricas_Datos!P:P)</f>
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <f>AVERAGEIF($D:$D,$D32,Metricas_Datos!Q:Q)</f>
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <f>AVERAGEIF($D:$D,$D32,Metricas_Datos!R:R)</f>
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <f>AVERAGEIF($D:$D,$D32,Metricas_Datos!S:S)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>